--- a/excel/TestSuite_KillerCells_Submission.xlsx
+++ b/excel/TestSuite_KillerCells_Submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\AutoGraderProject\pysheetgrader-core\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6D6E8-7678-674C-B02D-9E9C698224A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79245A95-37AE-435A-95CC-40623BCA1B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22224" yWindow="0" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zipcode" sheetId="1" r:id="rId1"/>
@@ -403,15 +403,15 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -419,7 +419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -438,7 +438,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>

--- a/excel/TestSuite_KillerCells_Submission.xlsx
+++ b/excel/TestSuite_KillerCells_Submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\AutoGraderProject\pysheetgrader-core\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6D6E8-7678-674C-B02D-9E9C698224A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9C1462-1107-4CBC-91DF-CA2DB7A2C2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zipcode" sheetId="1" r:id="rId1"/>
@@ -403,15 +403,15 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -419,18 +419,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>432215</v>
+        <v>43215</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -438,7 +438,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>

--- a/excel/TestSuite_KillerCells_Submission.xlsx
+++ b/excel/TestSuite_KillerCells_Submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\AutoGraderProject\pysheetgrader-core\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6D6E8-7678-674C-B02D-9E9C698224A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9FF296-1361-4CC1-B9A1-4F38B2346394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31815" yWindow="4905" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zipcode" sheetId="1" r:id="rId1"/>
@@ -403,15 +403,15 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -419,18 +419,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>432215</v>
+        <v>43215</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -438,12 +438,12 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11111</v>
+        <v>94043</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
